--- a/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Sample</t>
   </si>
@@ -43,10 +43,16 @@
     <t>true_mean-</t>
   </si>
   <si>
+    <t>meanDiff</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -404,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +456,11 @@
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -474,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>14.75</v>
@@ -486,13 +495,13 @@
         <v>1.5</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -518,7 +527,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>19.875</v>
@@ -530,13 +539,16 @@
         <v>2.711876227832259</v>
       </c>
       <c r="M3">
-        <v>-0.9282008650461675</v>
+        <v>-0.4328359231654586</v>
       </c>
       <c r="N3">
-        <v>-9.321799134953832</v>
+        <v>-9.817164076834541</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -562,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>20.5</v>
@@ -574,13 +586,16 @@
         <v>1.038675134594813</v>
       </c>
       <c r="M4">
-        <v>-4.142584860021422</v>
+        <v>-3.952855239472781</v>
       </c>
       <c r="N4">
-        <v>-7.357415139978578</v>
+        <v>-7.547144760527219</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -606,7 +621,7 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>26</v>
@@ -618,13 +633,16 @@
         <v>0.75</v>
       </c>
       <c r="M5">
-        <v>-10.08932779862471</v>
+        <v>-9.952329029065268</v>
       </c>
       <c r="N5">
-        <v>-12.41067220137529</v>
+        <v>-12.54767097093473</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -650,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>30</v>
@@ -662,10 +680,13 @@
         <v>0.75</v>
       </c>
       <c r="M6">
-        <v>-14.08932779862471</v>
+        <v>-13.95232902906527</v>
       </c>
       <c r="N6">
-        <v>-16.41067220137528</v>
+        <v>-16.54767097093473</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Sample</t>
   </si>
@@ -500,6 +500,9 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">

--- a/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
@@ -492,7 +492,7 @@
         <v>1.5</v>
       </c>
       <c r="L2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -539,13 +539,13 @@
         <v>3.923752455664518</v>
       </c>
       <c r="L3">
-        <v>2.711876227832259</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.4328359231654586</v>
+        <v>-5.125</v>
       </c>
       <c r="N3">
-        <v>-9.817164076834541</v>
+        <v>-5.125</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -586,13 +586,13 @@
         <v>0.5773502691896257</v>
       </c>
       <c r="L4">
-        <v>1.038675134594813</v>
+        <v>1.136515141415488</v>
       </c>
       <c r="M4">
-        <v>-3.952855239472781</v>
+        <v>-3.783569723943119</v>
       </c>
       <c r="N4">
-        <v>-7.547144760527219</v>
+        <v>-7.716430276056881</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.75</v>
+        <v>1.060660171779821</v>
       </c>
       <c r="M5">
-        <v>-9.952329029065268</v>
+        <v>-9.414816113406239</v>
       </c>
       <c r="N5">
-        <v>-12.54767097093473</v>
+        <v>-13.08518388659376</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.75</v>
+        <v>1.060660171779821</v>
       </c>
       <c r="M6">
-        <v>-13.95232902906527</v>
+        <v>-13.41481611340624</v>
       </c>
       <c r="N6">
-        <v>-16.54767097093473</v>
+        <v>-17.08518388659376</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>

--- a/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_420G4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Sample</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
@@ -491,8 +494,8 @@
       <c r="K2">
         <v>1.5</v>
       </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -539,13 +542,13 @@
         <v>3.923752455664518</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.970339486770269</v>
       </c>
       <c r="M3">
-        <v>-5.125</v>
+        <v>0.01436443440393287</v>
       </c>
       <c r="N3">
-        <v>-5.125</v>
+        <v>-10.26436443440393</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -595,7 +598,7 @@
         <v>-7.716430276056881</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -642,7 +645,7 @@
         <v>-13.08518388659376</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -689,7 +692,7 @@
         <v>-17.08518388659376</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
